--- a/Languages/Polish/Instruction.xlsx
+++ b/Languages/Polish/Instruction.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDisk\scienceDocs\#eegmanylabs\ReplicationDocs\_RestingState\voiceCommands\Polish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\restingStatePresentation\Languages\Polish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FA6655-FD3D-4022-B499-B2AF927527DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6960816A-F4DF-4BE7-8811-11365FC60B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -388,7 +388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="171" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
